--- a/module/calibration/resultCal.xlsx
+++ b/module/calibration/resultCal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>pMortRes</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Values to match</t>
+  </si>
+  <si>
+    <t>meanDisp Alps</t>
+  </si>
+  <si>
+    <t>medianDispAlps</t>
+  </si>
+  <si>
+    <t>meanDispJura</t>
+  </si>
+  <si>
+    <t>medianDispJura</t>
   </si>
 </sst>
 </file>
@@ -396,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,10 +425,13 @@
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -432,8 +447,20 @@
       <c r="I1" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="L1" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="M1" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -461,8 +488,20 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -478,53 +517,233 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>0.18824299999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.0518880000000006E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1995014</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.27523609999999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>28.23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2017621</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.3207690000000006E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2193823</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.28124379999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>28.74</v>
+      </c>
+      <c r="K4" s="2">
+        <v>14.82</v>
+      </c>
+      <c r="L4" s="2">
+        <v>29.36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1885231</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.2777120000000006E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2161245</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.29353210000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30.47</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15.19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.19832849999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.9780779999999999E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2318443</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.2869448</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30.73</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15.23</v>
+      </c>
+      <c r="L6" s="2">
+        <v>29.25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.15E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.19413069999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.6155510000000001E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.23187740000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.28516590000000003</v>
+      </c>
+      <c r="J7" s="2">
+        <v>28.95</v>
+      </c>
+      <c r="K7" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>29.05</v>
+      </c>
+      <c r="M7" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -536,18 +755,22 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>

--- a/module/calibration/resultCal.xlsx
+++ b/module/calibration/resultCal.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bauduin\Documents\GitHub\appendix_lynxIBM\module\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.bauduin\Documents\GitHub\appendix_lynxIBM\module\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC6202-ED12-43B2-A1C1-BBDE29F4B2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +89,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +116,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,13 +141,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,28 +434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -517,10 +542,10 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>0.18824299999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>7.0518880000000006E-2</v>
       </c>
       <c r="H3" s="2">
@@ -529,7 +554,7 @@
       <c r="I3" s="2">
         <v>0.27523609999999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <v>28.23</v>
       </c>
       <c r="K3" s="2">
@@ -564,19 +589,19 @@
       <c r="G4" s="2">
         <v>7.3207690000000006E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>0.2193823</v>
       </c>
       <c r="I4" s="2">
         <v>0.28124379999999999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>28.74</v>
       </c>
       <c r="K4" s="2">
         <v>14.82</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <v>29.36</v>
       </c>
       <c r="M4" s="2">
@@ -599,16 +624,16 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>0.1885231</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>6.2777120000000006E-2</v>
       </c>
       <c r="H5" s="2">
         <v>0.2161245</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>0.29353210000000002</v>
       </c>
       <c r="J5" s="2">
@@ -617,7 +642,7 @@
       <c r="K5" s="2">
         <v>15.19</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="7">
         <v>30.2</v>
       </c>
       <c r="M5" s="2">
@@ -649,7 +674,7 @@
       <c r="H6" s="2">
         <v>0.2318443</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>0.2869448</v>
       </c>
       <c r="J6" s="2">
@@ -658,51 +683,51 @@
       <c r="K6" s="2">
         <v>15.23</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="7">
         <v>29.25</v>
       </c>
       <c r="M6" s="2">
         <v>18.36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>0.21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>1.15E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>0.19413069999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="10">
         <v>6.6155510000000001E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>0.23187740000000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="12">
         <v>0.28516590000000003</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="12">
         <v>28.95</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <v>15.14</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="12">
         <v>29.05</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="11">
         <v>17.8</v>
       </c>
     </row>
@@ -722,31 +747,76 @@
       <c r="E8" s="1">
         <v>9</v>
       </c>
+      <c r="F8" s="7">
+        <v>0.19600049999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.7965520000000001E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.20536969999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.30482949999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>29.87</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15.07</v>
+      </c>
+      <c r="L8" s="7">
+        <v>30.02</v>
+      </c>
+      <c r="M8" s="2">
+        <v>17.850000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-    </row>
+      <c r="F9" s="2">
+        <v>0.19963890000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.1068100000000004E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.2183118</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.29328670000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>31.34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>14.97</v>
+      </c>
+      <c r="L9" s="7">
+        <v>30.15</v>
+      </c>
+      <c r="M9" s="2">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -760,51 +830,15 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
+    <row r="22" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
